--- a/maintenance/CleanAirSystem_Maintenance_Tracker_Template.xlsx
+++ b/maintenance/CleanAirSystem_Maintenance_Tracker_Template.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,6 +534,11 @@
           <t>Last Done Furnace Hours</t>
         </is>
       </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Last_Done_Draw</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -603,7 +608,7 @@
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="S2" t="n">
@@ -612,6 +617,7 @@
       <c r="T2" t="n">
         <v>0</v>
       </c>
+      <c r="U2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -681,7 +687,7 @@
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="S3" t="n">
@@ -690,6 +696,7 @@
       <c r="T3" t="n">
         <v>0</v>
       </c>
+      <c r="U3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -774,6 +781,7 @@
       <c r="T4" t="n">
         <v>0</v>
       </c>
+      <c r="U4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -858,6 +866,7 @@
       <c r="T5" t="n">
         <v>0</v>
       </c>
+      <c r="U5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -927,7 +936,7 @@
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="S6" t="n">
@@ -936,6 +945,7 @@
       <c r="T6" t="n">
         <v>0</v>
       </c>
+      <c r="U6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1005,7 +1015,7 @@
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="S7" t="n">
@@ -1014,6 +1024,7 @@
       <c r="T7" t="n">
         <v>0</v>
       </c>
+      <c r="U7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
